--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/13.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/13.xlsx
@@ -479,13 +479,13 @@
         <v>-15.19738571481997</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.97901467572183</v>
+        <v>-13.13476389368088</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2397042588900705</v>
+        <v>-2.707098172422791</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.11582605706398</v>
+        <v>-10.52271855372811</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.09014001831426</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.53470437753605</v>
+        <v>-13.57672076070902</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3387737144934116</v>
+        <v>-2.6282825093156</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.94139730630367</v>
+        <v>-10.52893739757793</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-15.01806431655676</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.04708474154984</v>
+        <v>-13.82910108258898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2054417023532734</v>
+        <v>-2.808210027269442</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.81048737018925</v>
+        <v>-10.65984733369235</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.97216499971597</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.57135291654392</v>
+        <v>-14.1907890408945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4657690520581545</v>
+        <v>-2.526633870052439</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.64213344794749</v>
+        <v>-10.67783615779688</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.954471357314</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.28507980596061</v>
+        <v>-14.81191407231167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4519435802572918</v>
+        <v>-2.623346711144269</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.36019070625092</v>
+        <v>-10.81398301504799</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-14.97452326547591</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.81787107010466</v>
+        <v>-15.11572095975392</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5590124328969276</v>
+        <v>-2.42499832309212</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.35525490807959</v>
+        <v>-11.16304999341409</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.00698258077867</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.52018147144337</v>
+        <v>-15.62165991076959</v>
       </c>
       <c r="F8" t="n">
-        <v>0.852541862608426</v>
+        <v>-2.194181023992489</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.738764551868394</v>
+        <v>-10.64845703022005</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.0682277591055</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.37038252568222</v>
+        <v>-16.33964179860984</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9561805319035296</v>
+        <v>-2.105166456971594</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.181529958318849</v>
+        <v>-10.36470755073132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.13222568278735</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.07117421989129</v>
+        <v>-17.126371368672</v>
       </c>
       <c r="F10" t="n">
-        <v>1.161520209673161</v>
+        <v>-2.061294150148969</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.630540393224809</v>
+        <v>-9.981207815891478</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.19337809155154</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.05113308759448</v>
+        <v>-18.12217192281369</v>
       </c>
       <c r="F11" t="n">
-        <v>1.329311162892723</v>
+        <v>-1.931837459649982</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.367529121437373</v>
+        <v>-9.81100787894904</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.24573324178542</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.94893775496585</v>
+        <v>-18.80760634578942</v>
       </c>
       <c r="F12" t="n">
-        <v>1.540123423250196</v>
+        <v>-1.900821794217933</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.874420627206603</v>
+        <v>-9.385049805993482</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.25788701827241</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.47535306762597</v>
+        <v>-19.21273456492379</v>
       </c>
       <c r="F13" t="n">
-        <v>1.480422522291925</v>
+        <v>-2.080029235515479</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.237388447836738</v>
+        <v>-8.762275144418256</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.23793501839291</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.44316227829205</v>
+        <v>-20.10043197450134</v>
       </c>
       <c r="F14" t="n">
-        <v>1.956851422702336</v>
+        <v>-1.539461143483452</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.433272299600764</v>
+        <v>-7.817063248457001</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.15509134281003</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.31699493916021</v>
+        <v>-20.81481347906012</v>
       </c>
       <c r="F15" t="n">
-        <v>2.024119674703125</v>
+        <v>-1.495955421140396</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.101316961048799</v>
+        <v>-7.460913334253527</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-15.00598009559175</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.00804596005504</v>
+        <v>-21.36831676629978</v>
       </c>
       <c r="F16" t="n">
-        <v>2.197697425778729</v>
+        <v>-1.416393496771227</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.650928650990581</v>
+        <v>-6.896229220387039</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.78449284239104</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.87530628489666</v>
+        <v>-22.17594165169733</v>
       </c>
       <c r="F17" t="n">
-        <v>2.480412613342962</v>
+        <v>-1.247934836106737</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.651478527709934</v>
+        <v>-6.750001289947801</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.47361989743431</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.89750092156726</v>
+        <v>-23.25373929853675</v>
       </c>
       <c r="F18" t="n">
-        <v>2.410264054716994</v>
+        <v>-1.16132925280872</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.426002888169728</v>
+        <v>-6.398080189562204</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-14.09061756023942</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.50243077436921</v>
+        <v>-23.73422681282809</v>
       </c>
       <c r="F19" t="n">
-        <v>2.682453030796478</v>
+        <v>-0.805716123021756</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.400852574410772</v>
+        <v>-6.39137693050724</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.62145115026515</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.98197564285595</v>
+        <v>-24.26875935325009</v>
       </c>
       <c r="F20" t="n">
-        <v>2.962078434890064</v>
+        <v>-0.4519882848440011</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.133821965650927</v>
+        <v>-6.06696275839211</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.08192233056394</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.68702233548859</v>
+        <v>-24.99858977516211</v>
       </c>
       <c r="F21" t="n">
-        <v>2.906724178475246</v>
+        <v>-0.3561395357397246</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.029947634904672</v>
+        <v>-5.76006608747921</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.47995962440223</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.2070355120591</v>
+        <v>-25.56633748789356</v>
       </c>
       <c r="F22" t="n">
-        <v>3.134713540161064</v>
+        <v>0.01782900263133883</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.160556448053732</v>
+        <v>-5.957249260578446</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.8213954389213</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.67563521537016</v>
+        <v>-26.125234803904</v>
       </c>
       <c r="F23" t="n">
-        <v>3.120390560852216</v>
+        <v>0.1156285048590326</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.137383072023876</v>
+        <v>-5.696817172450831</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.14245512224965</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.03618414332846</v>
+        <v>-26.38764382976072</v>
       </c>
       <c r="F24" t="n">
-        <v>3.333742727960983</v>
+        <v>0.3908287105921145</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.356836252256889</v>
+        <v>-5.741160802175757</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.4526182785974</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.18230733534496</v>
+        <v>-26.68715644187088</v>
       </c>
       <c r="F25" t="n">
-        <v>3.158462977515955</v>
+        <v>0.2998110212364349</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.023728791054852</v>
+        <v>-5.463446874297063</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.791879481896443</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.60830468520905</v>
+        <v>-27.23496457737438</v>
       </c>
       <c r="F26" t="n">
-        <v>3.407111993086017</v>
+        <v>0.8770506535281373</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.091415996746576</v>
+        <v>-5.580400415582202</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.181026352209425</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.44029116284118</v>
+        <v>-27.02286927133842</v>
       </c>
       <c r="F27" t="n">
-        <v>3.343457216669544</v>
+        <v>0.7359156288943303</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.043589814465751</v>
+        <v>-5.569559988829254</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.63387844649348</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.68156921191135</v>
+        <v>-27.20235165099565</v>
       </c>
       <c r="F28" t="n">
-        <v>3.101118691069195</v>
+        <v>0.5651265383240136</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.092568119396648</v>
+        <v>-5.598821285680511</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.174164559669673</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.64604979430174</v>
+        <v>-27.09883081242612</v>
       </c>
       <c r="F29" t="n">
-        <v>3.255398387756095</v>
+        <v>0.7247086176618127</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.123701615554272</v>
+        <v>-5.658469817427416</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.789727711490041</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.32642740502668</v>
+        <v>-26.79529886334354</v>
       </c>
       <c r="F30" t="n">
-        <v>3.109864349367468</v>
+        <v>0.6197607180825365</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.199283479859557</v>
+        <v>-5.724232454601405</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.489725760400616</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.06968734630044</v>
+        <v>-26.51918219641154</v>
       </c>
       <c r="F31" t="n">
-        <v>3.066581196172721</v>
+        <v>0.4163063319221134</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.082840538385245</v>
+        <v>-5.703376416174536</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.257961270772044</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.80551085956009</v>
+        <v>-26.29722838633576</v>
       </c>
       <c r="F32" t="n">
-        <v>3.030708286386392</v>
+        <v>0.473729172185924</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.283781202400057</v>
+        <v>-5.886223517662082</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.078278749102051</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.59942492052848</v>
+        <v>-26.13400664680796</v>
       </c>
       <c r="F33" t="n">
-        <v>3.102061336873799</v>
+        <v>0.5373708562995544</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.612686034389899</v>
+        <v>-6.312836205759726</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.943355216151643</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.12392557361983</v>
+        <v>-25.72154673808222</v>
       </c>
       <c r="F34" t="n">
-        <v>3.011593524237472</v>
+        <v>0.4824879227870387</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.757369073093814</v>
+        <v>-6.376700459021666</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.824962118252447</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.75281115726826</v>
+        <v>-25.30374516979706</v>
       </c>
       <c r="F35" t="n">
-        <v>3.003319188841501</v>
+        <v>0.4395320771633355</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.855155483018666</v>
+        <v>-6.492069831662956</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.718891170546355</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.46717638617032</v>
+        <v>-25.03225008576818</v>
       </c>
       <c r="F36" t="n">
-        <v>3.004209465434739</v>
+        <v>0.3861809430833018</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.767895284578562</v>
+        <v>-6.408266001173067</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.604321708286854</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.02364844280117</v>
+        <v>-24.70660523718593</v>
       </c>
       <c r="F37" t="n">
-        <v>2.755115311568058</v>
+        <v>0.1220306409486366</v>
       </c>
       <c r="G37" t="n">
-        <v>-6.036929015673191</v>
+        <v>-6.433769807108749</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.469541807397854</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.42817123265094</v>
+        <v>-24.04825878878973</v>
       </c>
       <c r="F38" t="n">
-        <v>3.200620192666313</v>
+        <v>0.6074015841999472</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.996853476674668</v>
+        <v>-6.336899858382819</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.310734566184774</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.0564676626715</v>
+        <v>-23.72537641610709</v>
       </c>
       <c r="F39" t="n">
-        <v>3.124894313029769</v>
+        <v>0.4440751062494144</v>
       </c>
       <c r="G39" t="n">
-        <v>-6.263517500954944</v>
+        <v>-6.454900783895296</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.114100493830952</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.50994257284648</v>
+        <v>-23.28678427090927</v>
       </c>
       <c r="F40" t="n">
-        <v>3.119474099653295</v>
+        <v>0.3017224974513269</v>
       </c>
       <c r="G40" t="n">
-        <v>-6.112628710704051</v>
+        <v>-6.048921565076212</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.890067306055824</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.03071191962794</v>
+        <v>-22.78348996506763</v>
       </c>
       <c r="F41" t="n">
-        <v>3.250240020436455</v>
+        <v>0.500633854525671</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.36740492400404</v>
+        <v>-6.303095532445481</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.638802459982765</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.51945749365854</v>
+        <v>-22.45340682582203</v>
       </c>
       <c r="F42" t="n">
-        <v>3.302635416409042</v>
+        <v>0.541547300906065</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.491127185858351</v>
+        <v>-6.340068195670516</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.37431968118401</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.869411565264</v>
+        <v>-21.82022378348763</v>
       </c>
       <c r="F43" t="n">
-        <v>3.24262030018257</v>
+        <v>0.5159911257590157</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.277238234333073</v>
+        <v>-6.019869745070421</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-5.116052134577215</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.65463233714548</v>
+        <v>-21.68884252447091</v>
       </c>
       <c r="F44" t="n">
-        <v>3.250528051098973</v>
+        <v>0.4516555495947738</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.122958537646173</v>
+        <v>-5.844354333174242</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.873743593801659</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.86436784531606</v>
+        <v>-20.82204043022876</v>
       </c>
       <c r="F45" t="n">
-        <v>3.161474207169552</v>
+        <v>0.3281296722830884</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.135239117711712</v>
+        <v>-5.951148247454202</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.675778769870162</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.28461449087874</v>
+        <v>-20.42373330087493</v>
       </c>
       <c r="F46" t="n">
-        <v>2.875773974557406</v>
+        <v>0.06219881696194847</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.116621863070777</v>
+        <v>-6.008335426266861</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.530937107870984</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.41139716824414</v>
+        <v>-19.49979639703147</v>
       </c>
       <c r="F47" t="n">
-        <v>3.172236080105451</v>
+        <v>0.4205220534371492</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.1565402944352</v>
+        <v>-5.839261427368811</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.456461050686546</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.7524091970087</v>
+        <v>-18.93465405256553</v>
       </c>
       <c r="F48" t="n">
-        <v>2.985566026188121</v>
+        <v>0.1507682456862253</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.415741706095693</v>
+        <v>-6.218741825236241</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.462702196419453</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.18242270049131</v>
+        <v>-18.37584838267497</v>
       </c>
       <c r="F49" t="n">
-        <v>3.070194671757038</v>
+        <v>0.2378975210979123</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.73072942016478</v>
+        <v>-6.569955941268384</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.544786486350441</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60727783665429</v>
+        <v>-17.87942753582525</v>
       </c>
       <c r="F50" t="n">
-        <v>2.974044799687402</v>
+        <v>0.2165177905573736</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.53966035249263</v>
+        <v>-6.475560437779539</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.710976826108329</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.19768514225089</v>
+        <v>-17.36152222001225</v>
       </c>
       <c r="F51" t="n">
-        <v>3.094834385705166</v>
+        <v>0.2963415609833775</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.776513203202296</v>
+        <v>-6.707359659592299</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.944934823254685</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.83036749372342</v>
+        <v>-16.84572476495676</v>
       </c>
       <c r="F52" t="n">
-        <v>2.95013825469841</v>
+        <v>0.1243741631573056</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.761169024271793</v>
+        <v>-6.681855853656617</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.24258781152873</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.87318923296483</v>
+        <v>-15.79250137055127</v>
       </c>
       <c r="F53" t="n">
-        <v>3.000936389724307</v>
+        <v>0.1676835009577354</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.825138015956467</v>
+        <v>-6.678268562677984</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.591033561057167</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.21514390753399</v>
+        <v>-14.97716511877994</v>
       </c>
       <c r="F54" t="n">
-        <v>2.883419879416974</v>
+        <v>0.06747501500716407</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.243371630235406</v>
+        <v>-7.095336962004009</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.970005235799465</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.74361152838639</v>
+        <v>-14.4374742110383</v>
       </c>
       <c r="F55" t="n">
-        <v>2.947205578861863</v>
+        <v>0.08322505532576054</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.488184601072842</v>
+        <v>-7.276743910178966</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.375209361624459</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.63984193606287</v>
+        <v>-14.33943904735946</v>
       </c>
       <c r="F56" t="n">
-        <v>2.803425909054027</v>
+        <v>-0.1088259350595192</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.57653146064881</v>
+        <v>-7.284402907341375</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.782700838506655</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.23869377699238</v>
+        <v>-13.85630688789409</v>
       </c>
       <c r="F57" t="n">
-        <v>2.931154415577907</v>
+        <v>0.09185288289845801</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.405022293422198</v>
+        <v>-7.109123156896347</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.189897511910704</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.13276395469997</v>
+        <v>-13.7010583607969</v>
       </c>
       <c r="F58" t="n">
-        <v>2.821388548552876</v>
+        <v>-0.04515806634020529</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.708449504082042</v>
+        <v>-7.428378961691838</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.585880680337761</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.52054168921518</v>
+        <v>-13.15027827254832</v>
       </c>
       <c r="F59" t="n">
-        <v>2.845714047232803</v>
+        <v>-0.06380150558682321</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.138151975650333</v>
+        <v>-7.958250642302175</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.95971493897288</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.0671552418062</v>
+        <v>-12.47912755197292</v>
       </c>
       <c r="F60" t="n">
-        <v>3.008791771429343</v>
+        <v>0.09728618857777434</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.114376353689758</v>
+        <v>-7.969706407288685</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.315946203367952</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.00240071195103</v>
+        <v>-12.40221027277778</v>
       </c>
       <c r="F61" t="n">
-        <v>2.999889005496969</v>
+        <v>0.07011966018119274</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.309870619722412</v>
+        <v>-8.226354819895041</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.639890904065489</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.69185128854529</v>
+        <v>-12.05205663327582</v>
       </c>
       <c r="F62" t="n">
-        <v>2.9846495649892</v>
+        <v>0.04294003948176942</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.407080968322228</v>
+        <v>-8.195941400393712</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.941144993615556</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.19910937879408</v>
+        <v>-11.41769528368566</v>
       </c>
       <c r="F63" t="n">
-        <v>2.801278771387985</v>
+        <v>-0.2799947024122458</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.456438950035535</v>
+        <v>-8.24803567340094</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.21561977469905</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.03249673283028</v>
+        <v>-11.1710232058447</v>
       </c>
       <c r="F64" t="n">
-        <v>2.788291206968992</v>
+        <v>-0.2523175742048369</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.315094448556261</v>
+        <v>-8.180976898245619</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.461101266278778</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.89370523040514</v>
+        <v>-11.01085197287902</v>
       </c>
       <c r="F65" t="n">
-        <v>2.662552730477055</v>
+        <v>-0.4089538854032476</v>
       </c>
       <c r="G65" t="n">
-        <v>-8.521507695158913</v>
+        <v>-8.462081732560319</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.686073150407445</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.98234012064362</v>
+        <v>-11.09576864911046</v>
       </c>
       <c r="F66" t="n">
-        <v>2.712277296669931</v>
+        <v>-0.3869980935376729</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.636680683257579</v>
+        <v>-8.526443493330245</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.877628168803701</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.83828551247611</v>
+        <v>-10.82431284199011</v>
       </c>
       <c r="F67" t="n">
-        <v>2.512122170825622</v>
+        <v>-0.6882650742286315</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.534901120966</v>
+        <v>-8.345939914051367</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.0473983413217</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.61900253218004</v>
+        <v>-10.71453388266224</v>
       </c>
       <c r="F68" t="n">
-        <v>2.281226317908942</v>
+        <v>-0.8424662170984811</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.508716515282547</v>
+        <v>-8.259805653655651</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.18826863315617</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.56765452043479</v>
+        <v>-10.61143199778365</v>
       </c>
       <c r="F69" t="n">
-        <v>2.1583419634365</v>
+        <v>-1.040853882059156</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.420696963277623</v>
+        <v>-8.097696759869399</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.2988487996079</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.70385374689727</v>
+        <v>-10.75214806872652</v>
       </c>
       <c r="F70" t="n">
-        <v>2.086517590046792</v>
+        <v>-1.064812796259515</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.50782623868931</v>
+        <v>-8.11014753987188</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.38547453787832</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.86539967166133</v>
+        <v>-11.04061077723827</v>
       </c>
       <c r="F71" t="n">
-        <v>2.051194556979814</v>
+        <v>-1.044964865151458</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.378631394247156</v>
+        <v>-7.813331942147109</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.43470597105759</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.80945626161863</v>
+        <v>-10.87808292976108</v>
       </c>
       <c r="F72" t="n">
-        <v>1.8716205312027</v>
+        <v>-1.289542174537743</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.378906332606833</v>
+        <v>-7.735511294055889</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.45996432712388</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.00440065093193</v>
+        <v>-11.06187267705323</v>
       </c>
       <c r="F73" t="n">
-        <v>1.684976661891053</v>
+        <v>-1.40170393298281</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.0135132525971</v>
+        <v>-7.224335421903537</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.45319658902395</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.33758666595102</v>
+        <v>-11.4291903255807</v>
       </c>
       <c r="F74" t="n">
-        <v>1.681860693814722</v>
+        <v>-1.418514449831586</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.744256952354162</v>
+        <v>-6.942130834150131</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.41716909388912</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.64562236721115</v>
+        <v>-11.73984448740917</v>
       </c>
       <c r="F75" t="n">
-        <v>1.564344183507389</v>
+        <v>-1.58237771219863</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.405506708627342</v>
+        <v>-6.387331408929147</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.35772427382434</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.76689636843406</v>
+        <v>-11.90281747318298</v>
       </c>
       <c r="F76" t="n">
-        <v>1.398045752811784</v>
+        <v>-1.761401861256392</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.370759736885401</v>
+        <v>-6.263308024109477</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.26262385523</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.10538476610405</v>
+        <v>-12.18765361380757</v>
       </c>
       <c r="F77" t="n">
-        <v>1.495452485954226</v>
+        <v>-1.728893673300386</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.232086065185839</v>
+        <v>-6.034415293527579</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.1461913220091</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.43142238377155</v>
+        <v>-12.66486805238849</v>
       </c>
       <c r="F78" t="n">
-        <v>1.365210257284735</v>
+        <v>-1.831079096980058</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.863459186374199</v>
+        <v>-5.531553033679723</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.998502206443654</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.7524849263592</v>
+        <v>-12.93610129036053</v>
       </c>
       <c r="F79" t="n">
-        <v>1.081932100698308</v>
+        <v>-2.183602443296374</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.931120207460239</v>
+        <v>-5.537104170084615</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.824401465912864</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.24345937522677</v>
+        <v>-13.51708532126496</v>
       </c>
       <c r="F80" t="n">
-        <v>1.291605330708552</v>
+        <v>-1.876640310869265</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.809479621757762</v>
+        <v>-5.329381693197789</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.627781723719517</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.69316688553721</v>
+        <v>-13.95749729655779</v>
       </c>
       <c r="F81" t="n">
-        <v>1.232729244829309</v>
+        <v>-2.012027814555554</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.743114738653053</v>
+        <v>-5.125613091769164</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.398892756963155</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.34494099790686</v>
+        <v>-14.65883886748621</v>
       </c>
       <c r="F82" t="n">
-        <v>1.277164520674128</v>
+        <v>-1.955691635427607</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.644071467655396</v>
+        <v>-5.074854233651792</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.15287865933051</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.01046202826032</v>
+        <v>-15.13915618184061</v>
       </c>
       <c r="F83" t="n">
-        <v>1.274087829506322</v>
+        <v>-2.024884455946129</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.647776589359604</v>
+        <v>-5.008908304238018</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.880895991309442</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.82638743365954</v>
+        <v>-15.96374869172105</v>
       </c>
       <c r="F84" t="n">
-        <v>1.2766539208633</v>
+        <v>-2.064475579739509</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.383285887351054</v>
+        <v>-4.777894620595761</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.592363082314371</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.16998501279167</v>
+        <v>-17.47144519467138</v>
       </c>
       <c r="F85" t="n">
-        <v>1.248832777324632</v>
+        <v>-2.083891464853789</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.009055502923156</v>
+        <v>-4.399527068469879</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.291996812285049</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.26177833136889</v>
+        <v>-18.62520438259849</v>
       </c>
       <c r="F86" t="n">
-        <v>1.24304597946859</v>
+        <v>-2.102534904100406</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.631394935150726</v>
+        <v>-4.007268583028924</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.977125376716097</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.25806330071572</v>
+        <v>-19.55598856082816</v>
       </c>
       <c r="F87" t="n">
-        <v>1.067661490600827</v>
+        <v>-2.326858420990541</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.538269385037529</v>
+        <v>-3.850056210505477</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.667476682922985</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.72665309507782</v>
+        <v>-21.05787208131677</v>
       </c>
       <c r="F88" t="n">
-        <v>1.020817231033131</v>
+        <v>-2.401877316273632</v>
       </c>
       <c r="G88" t="n">
-        <v>-5.200789094686355</v>
+        <v>-3.510808459270671</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.360177453277375</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.24659090118517</v>
+        <v>-22.50563202185768</v>
       </c>
       <c r="F89" t="n">
-        <v>1.130321252001328</v>
+        <v>-2.388693367312013</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.352987115221421</v>
+        <v>-3.742005435152712</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.074992278859209</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.62794668171284</v>
+        <v>-23.86611867165564</v>
       </c>
       <c r="F90" t="n">
-        <v>1.116417226383415</v>
+        <v>-2.356158994750324</v>
       </c>
       <c r="G90" t="n">
-        <v>-5.252909552299267</v>
+        <v>-3.546026753914914</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.823035565419508</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.10227090471961</v>
+        <v>-25.41809334281669</v>
       </c>
       <c r="F91" t="n">
-        <v>1.073003150160251</v>
+        <v>-2.404692161384602</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.130850012905855</v>
+        <v>-3.3960413325601</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.611425333849922</v>
       </c>
       <c r="E92" t="n">
-        <v>-27.81343488613321</v>
+        <v>-27.07938874270615</v>
       </c>
       <c r="F92" t="n">
-        <v>1.097878525559531</v>
+        <v>-2.40126197804007</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.334291306763436</v>
+        <v>-3.604837378279948</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.463459347676177</v>
       </c>
       <c r="E93" t="n">
-        <v>-29.70731504600594</v>
+        <v>-28.94233179096388</v>
       </c>
       <c r="F93" t="n">
-        <v>1.154882412132406</v>
+        <v>-2.261907506592738</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.733999312521333</v>
+        <v>-4.109493283617121</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.375788665641053</v>
       </c>
       <c r="E94" t="n">
-        <v>-31.89192288278203</v>
+        <v>-31.18754389759433</v>
       </c>
       <c r="F94" t="n">
-        <v>1.103220185118955</v>
+        <v>-2.266529089495867</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.547447089329578</v>
+        <v>-3.975074610341119</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.364920144360275</v>
       </c>
       <c r="E95" t="n">
-        <v>-33.68932586301408</v>
+        <v>-32.79030361147844</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9518469796629183</v>
+        <v>-2.31736650143029</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.836289474623738</v>
+        <v>-4.304751888198624</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.432990863264392</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.11699230204682</v>
+        <v>-35.19500615132679</v>
       </c>
       <c r="F96" t="n">
-        <v>1.090049328460179</v>
+        <v>-2.015994782316597</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.214591565235414</v>
+        <v>-4.927618195893741</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.569139505865646</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.37550618836445</v>
+        <v>-37.43296512218291</v>
       </c>
       <c r="F97" t="n">
-        <v>1.148729029796795</v>
+        <v>-1.900154086773005</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.659926246396726</v>
+        <v>-5.436489822745949</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.785747540062024</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.61593960445767</v>
+        <v>-39.5930641680393</v>
       </c>
       <c r="F98" t="n">
-        <v>0.7494923469412001</v>
+        <v>-2.205859358127308</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.725125914548522</v>
+        <v>-5.454229893096489</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.045250269290055</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.83207370647664</v>
+        <v>-41.76376797919748</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6687128384077503</v>
+        <v>-2.302454368493564</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.123040274817102</v>
+        <v>-6.038028769111896</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.370912369295623</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.12588444125558</v>
+        <v>-44.15700166175648</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4673008514906365</v>
+        <v>-2.431636120632875</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.221808607455084</v>
+        <v>-6.275235111998288</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.706129862441442</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.11645125761445</v>
+        <v>-46.01800704919363</v>
       </c>
       <c r="F101" t="n">
-        <v>0.252587084886329</v>
+        <v>-2.402937792803811</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.301959685452131</v>
+        <v>-6.702567876752227</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.104822167349095</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.72919048961783</v>
+        <v>-48.6677974982391</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3056240036981613</v>
+        <v>-2.143526904297851</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.637528499588411</v>
+        <v>-7.306633637566627</v>
       </c>
     </row>
   </sheetData>
